--- a/outputs-r202/test-g__Bulleidia.xlsx
+++ b/outputs-r202/test-g__Bulleidia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>Row</t>
   </si>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,14 +173,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -231,752 +235,752 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="C2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="D2">
-        <v>0.98648396107959813</v>
+        <v>0.97595729841772061</v>
       </c>
       <c r="E2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="F2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="G2">
-        <v>2.2762794707637823e-13</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="H2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="I2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="J2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="K2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="L2">
-        <v>0.013469948097712979</v>
+        <v>0.024038836817985507</v>
       </c>
       <c r="M2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="N2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="O2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="P2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="R2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="S2">
-        <v>1.3645519275173286e-09</v>
+        <v>3.2696848414153998e-09</v>
       </c>
       <c r="T2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="U2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="V2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="W2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="X2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AD2">
-        <v>4.6086185708944308e-05</v>
+        <v>3.8588431771105366e-06</v>
       </c>
       <c r="AE2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2202646672465024e-14</v>
+        <v>2.2201898461182327e-14</v>
       </c>
       <c r="AH2">
-        <v>3.2716011557575262e-09</v>
+        <v>2.6508100084256351e-09</v>
       </c>
       <c r="AI2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="C3">
-        <v>0.99999992047059383</v>
+        <v>0.99999953977270206</v>
       </c>
       <c r="D3">
-        <v>6.9102805015926777e-10</v>
+        <v>4.5124034888245772e-07</v>
       </c>
       <c r="E3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="F3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="G3">
-        <v>7.8424025637045763e-08</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="L3">
-        <v>2.246567562240027e-12</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="M3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="N3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="O3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="P3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="R3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="S3">
-        <v>3.1985886510393451e-11</v>
+        <v>1.9217905031403311e-13</v>
       </c>
       <c r="T3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="U3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="V3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="W3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="X3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AD3">
-        <v>7.3101586374321195e-12</v>
+        <v>8.5853222943421825e-13</v>
       </c>
       <c r="AE3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2204460438990411e-14</v>
+        <v>2.2204460182833495e-14</v>
       </c>
       <c r="AH3">
-        <v>3.7223238772248584e-10</v>
+        <v>8.985276807732077e-09</v>
       </c>
       <c r="AI3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="C4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="D4">
-        <v>0.99915516721530373</v>
+        <v>0.95842439773608679</v>
       </c>
       <c r="E4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="F4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="G4">
-        <v>8.3210634953151695e-14</v>
+        <v>4.5562217399222229e-14</v>
       </c>
       <c r="H4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="I4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="J4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="K4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="L4">
-        <v>0.00060285409308134092</v>
+        <v>0.041572697665606444</v>
       </c>
       <c r="M4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="N4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="O4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="P4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="R4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="S4">
-        <v>4.5598873550711847e-11</v>
+        <v>2.9332077926461838e-09</v>
       </c>
       <c r="T4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="U4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="V4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="W4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="X4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AD4">
-        <v>0.00024181143927254901</v>
+        <v>2.8989125973788026e-06</v>
       </c>
       <c r="AE4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2203973991582949e-14</v>
+        <v>2.2201986886739534e-14</v>
       </c>
       <c r="AH4">
-        <v>1.6720606068611784e-07</v>
+        <v>2.7518565896248483e-09</v>
       </c>
       <c r="AI4">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="C5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="D5">
-        <v>5.8769614161488287e-05</v>
+        <v>1.754833543292096e-05</v>
       </c>
       <c r="E5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="F5">
-        <v>0.0024335287003562638</v>
+        <v>6.7351146987796446e-05</v>
       </c>
       <c r="G5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="H5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="I5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="J5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="K5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="L5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="M5">
-        <v>0.85917165489239566</v>
+        <v>0.99878569917025328</v>
       </c>
       <c r="N5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="O5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="P5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="R5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="S5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="T5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="U5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="V5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="W5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="X5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AD5">
-        <v>1.2303983870161813e-12</v>
+        <v>2.8506514609000566e-11</v>
       </c>
       <c r="AE5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2197897104034666e-14</v>
+        <v>2.220364638291295e-14</v>
       </c>
       <c r="AH5">
-        <v>0.13833604679123468</v>
+        <v>0.001129401318197779</v>
       </c>
       <c r="AI5">
         <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.028573603909117954</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="C6">
-        <v>0.028573603909117954</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="D6">
-        <v>0.028573603909117892</v>
+        <v>0.00042193722608775062</v>
       </c>
       <c r="E6">
-        <v>0.028573603909117888</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="F6">
-        <v>0.028573610156557058</v>
+        <v>9.8469476951666884e-13</v>
       </c>
       <c r="G6">
-        <v>0.028573603909117881</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="H6">
-        <v>0.028573603909117874</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="I6">
-        <v>0.028573603909117874</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="J6">
-        <v>0.028573603909117874</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="K6">
-        <v>0.028573603909117892</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="L6">
-        <v>0.028573670139741405</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="M6">
-        <v>0.028573603909117954</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="N6">
-        <v>0.063192736938044197</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="O6">
-        <v>0.028573603909117916</v>
+        <v>0.99957805797342036</v>
       </c>
       <c r="P6">
-        <v>0.028573603909117916</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="Q6">
-        <v>0.028573603909117954</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="R6">
-        <v>0.028573603909117954</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="S6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="T6">
-        <v>0.028573603909117937</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="U6">
-        <v>0.051025403649119908</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="V6">
-        <v>0.028573603909117937</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="W6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="X6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="Y6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="Z6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AA6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AB6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AC6">
-        <v>0.028573603909117944</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AD6">
-        <v>0.028573669661232901</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AE6">
-        <v>0.02857360390911793</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AF6">
-        <v>0.028573603909117919</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AG6">
-        <v>0.028573603909117923</v>
+        <v>2.2204176939509564e-14</v>
       </c>
       <c r="AH6">
-        <v>0.028573603909120844</v>
+        <v>4.7988632167079688e-09</v>
       </c>
       <c r="AI6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="C7">
-        <v>2.2203910646138577e-14</v>
+        <v>0.99999999811802109</v>
       </c>
       <c r="D7">
-        <v>0.00081913498223414039</v>
+        <v>6.6198425104683029e-10</v>
       </c>
       <c r="E7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="F7">
-        <v>1.7109901490489335e-10</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="G7">
-        <v>2.2203910646138577e-14</v>
+        <v>5.8276585199403184e-10</v>
       </c>
       <c r="H7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="I7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="J7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="K7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="L7">
-        <v>2.2203910646138577e-14</v>
+        <v>6.0308135088718429e-13</v>
       </c>
       <c r="M7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="N7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="O7">
-        <v>0.99918083129500945</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="P7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="R7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="S7">
-        <v>2.2203910646138577e-14</v>
+        <v>5.0469851655355506e-12</v>
       </c>
       <c r="T7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="U7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="V7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="W7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="X7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2203910646138577e-14</v>
+        <v>4.0559973085059198e-12</v>
       </c>
       <c r="AE7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AF7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AG7">
-        <v>2.2203910646138577e-14</v>
+        <v>2.2204460491236441e-14</v>
       </c>
       <c r="AH7">
-        <v>3.355101365233827e-08</v>
+        <v>6.2694560438190827e-10</v>
       </c>
       <c r="AI7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
